--- a/docs/table.xlsx
+++ b/docs/table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\#Proj\Shoppy\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4985C6-D1F9-4771-B1AD-78EB3A7D7636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE35D033-2AA6-4AA8-B320-22E2AAA8E995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="-75" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="91">
   <si>
     <t>عنوان</t>
   </si>
@@ -275,6 +275,24 @@
   </si>
   <si>
     <t>شناسه سفارش</t>
+  </si>
+  <si>
+    <t>ویژگی محصول</t>
+  </si>
+  <si>
+    <t>ProductFeature</t>
+  </si>
+  <si>
+    <t>عنوان ویژگی</t>
+  </si>
+  <si>
+    <t>مقدار ویژگی</t>
+  </si>
+  <si>
+    <t>FeatureTitle</t>
+  </si>
+  <si>
+    <t>FeatureValue</t>
   </si>
 </sst>
 </file>
@@ -447,6 +465,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="double">
+          <color auto="1"/>
+        </top>
+        <bottom style="double">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -464,6 +492,13 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="double">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -500,23 +535,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="double">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="double">
-          <color auto="1"/>
-        </top>
-        <bottom style="double">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -536,7 +554,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:D18" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" headerRowBorderDxfId="6" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:D18" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="پیشفرض" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name=" BaseEntity" dataDxfId="2"/>
@@ -871,10 +889,10 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.2"/>
@@ -896,11 +914,13 @@
     <col min="15" max="15" width="39.125" style="1" customWidth="1"/>
     <col min="16" max="16" width="26.875" style="1" customWidth="1"/>
     <col min="17" max="17" width="39.125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="31.25" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="1"/>
+    <col min="18" max="18" width="30.125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="39.125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="30.125" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -955,8 +975,14 @@
       <c r="R1" s="5" t="s">
         <v>69</v>
       </c>
+      <c r="S1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>86</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1011,8 +1037,14 @@
       <c r="R2" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="S2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1067,8 +1099,14 @@
       <c r="R3" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="S3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1123,8 +1161,14 @@
       <c r="R4" s="4" t="s">
         <v>73</v>
       </c>
+      <c r="S4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>89</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1173,8 +1217,14 @@
       <c r="R5" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="S5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -1217,8 +1267,10 @@
       <c r="R6" s="4" t="s">
         <v>77</v>
       </c>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
     </row>
-    <row r="7" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>30</v>
       </c>
@@ -1250,7 +1302,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -1285,8 +1337,10 @@
       <c r="R8" s="4" t="s">
         <v>80</v>
       </c>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>33</v>
       </c>
@@ -1312,7 +1366,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
@@ -1343,8 +1397,10 @@
       <c r="R10" s="4" t="s">
         <v>83</v>
       </c>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
     </row>
-    <row r="11" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>37</v>
       </c>
@@ -1358,7 +1414,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1381,8 +1437,10 @@
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
     </row>
-    <row r="13" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1390,7 +1448,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1409,9 +1467,11 @@
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
     </row>
-    <row r="15" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1430,9 +1490,11 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1451,6 +1513,8 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
